--- a/images/img_settings.xlsx
+++ b/images/img_settings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\linwang\Box\Work\98_Algorithms\camera_calibration\images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B9218A8-FD08-41AB-966F-13988CED0950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{964829B4-A13B-4C87-88FC-17FA51A02E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>folder</t>
   </si>
@@ -36,9 +36,6 @@
     <t>imaging system</t>
   </si>
   <si>
-    <t>cylinder_telecentric</t>
-  </si>
-  <si>
     <t>camera</t>
   </si>
   <si>
@@ -82,6 +79,18 @@
   </si>
   <si>
     <t>calibration board</t>
+  </si>
+  <si>
+    <t>cylinder_telecentric/cyl1_exposure30000_360frames_flat</t>
+  </si>
+  <si>
+    <t>frames</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+  <si>
+    <t>cylinder_telecentric/cyl4_exposure30000_360frames_flat</t>
   </si>
 </sst>
 </file>
@@ -125,12 +134,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -414,112 +422,153 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="48.88671875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.21875" customWidth="1"/>
     <col min="3" max="3" width="22.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.88671875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10" customWidth="1"/>
-    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.88671875" customWidth="1"/>
+    <col min="6" max="6" width="27.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1"/>
+      <c r="G1" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>13</v>
-      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3">
+        <v>5</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D4">
+        <v>360</v>
+      </c>
+      <c r="E4">
+        <v>30000</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
         <v>15</v>
       </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4">
-        <v>30000</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F1:H1"/>
+  <mergeCells count="7">
+    <mergeCell ref="G1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
